--- a/DBMS/SPMVC_EMS_명세서.xlsx
+++ b/DBMS/SPMVC_EMS_명세서.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\oneday_ems\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sp_MVC_EMS" sheetId="5" r:id="rId1"/>
-    <sheet name="Sp_MVC_EMS (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="tbl_ems" sheetId="5" r:id="rId1"/>
+    <sheet name="tbl_file" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,14 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>첨부파일1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(30)</t>
   </si>
   <si>
@@ -202,14 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s_file1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_file2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(30)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,15 +218,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tbl_ems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일l</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신시퀀스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -955,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H13"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1610,7 +1618,9 @@
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
@@ -1633,9 +1643,7 @@
       <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -1709,13 +1717,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
@@ -1733,13 +1741,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -1758,13 +1766,13 @@
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
@@ -1783,13 +1791,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -1806,13 +1814,13 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -1829,13 +1837,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1852,13 +1860,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1871,18 +1879,10 @@
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -1894,18 +1894,10 @@
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -2038,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2693,7 +2685,9 @@
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
@@ -2716,9 +2710,7 @@
       <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -2792,14 +2784,12 @@
         <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
@@ -2813,19 +2803,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2838,20 +2828,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2862,18 +2850,10 @@
       <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2885,18 +2865,10 @@
       <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2908,18 +2880,10 @@
       <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -2931,18 +2895,10 @@
       <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2954,18 +2910,10 @@
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2977,18 +2925,10 @@
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3103,12 +3043,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
